--- a/기술_도감.xlsx
+++ b/기술_도감.xlsx
@@ -41,8 +41,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0066CCCC"/>
-        <bgColor rgb="0066CCCC"/>
+        <fgColor rgb="00CC99FF"/>
+        <bgColor rgb="00CC99FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -53,14 +53,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CC99FF"/>
-        <bgColor rgb="00CC99FF"/>
+        <fgColor rgb="00FF9999"/>
+        <bgColor rgb="00FF9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF9999"/>
-        <bgColor rgb="00FF9999"/>
+        <fgColor rgb="0066CCCC"/>
+        <bgColor rgb="0066CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -174,8 +174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SkillDex" displayName="SkillDex" ref="A1:G100" headerRowCount="1">
-  <autoFilter ref="A1:G100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SkillDex" displayName="SkillDex" ref="A1:G99" headerRowCount="1">
+  <autoFilter ref="A1:G99"/>
   <tableColumns count="7">
     <tableColumn id="1" name="이름"/>
     <tableColumn id="2" name="타입"/>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>불꽃치기</t>
+          <t>가시털</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>불꽃으로 적을 공격한다</t>
+          <t>등의 가시를 세워 적을 찔러 공격한다</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -572,12 +572,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>돌던지기</t>
+          <t>괴성</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>HUMAN</t>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>돌을 던져 적을 공격한다</t>
+          <t>듣기 싫은 소리를 내 공격한다</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -609,12 +609,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>꼬리치기</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>꼬리로 적을 공격한다</t>
+          <t>바닥의 그림자를 타고 빠르게 돌진해 공격한다</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>물기</t>
+          <t>꼬리치기</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>이빨로 적을 물어뜯는다</t>
+          <t>꼬리로 적을 공격한다</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>할퀴기</t>
+          <t>날개베기</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -698,17 +698,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>날카로운 발톱으로 할퀴어 공격한다</t>
+          <t>날개를 이용해 회전 베기를 가한다</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -720,17 +720,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>몸통박치기</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>몸 전체로 부딪혀 공격한다</t>
+          <t>독이 깃든 꽃잎을 흩뿌려 중독 상태를 유발한다</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -794,12 +794,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>짖기</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>소리로 적을 공격한다</t>
+          <t>돌가루를 날려 적의 시야를 가린다</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -831,12 +831,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>음파</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>강한 음파로 정신 피해를 입힌다</t>
+          <t>돌을 던져 적을 공격한다</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>유혹하기</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>적을 유혹해 상대를 혼란스럽게 한다</t>
+          <t>적에게 오싹한 눈빛을 보내 공격한다</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>날개베기</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -920,17 +920,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>날개를 이용해 회전 베기를 가한다</t>
+          <t>몸 전체로 부딪혀 공격한다</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -942,32 +942,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>망령의눈빛</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>적에게 오싹한 눈빛을 보내 공격한다</t>
+          <t>이빨로 적을 물어뜯는다</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -979,17 +979,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>정전기</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>바람발</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>정전기를 일으켜격한다</t>
+          <t>날개짓으로 찬 바람을 일으켜 적을 얼린다</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1016,32 +1016,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>소리지르기</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
+          <t>부채베기</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>HUMAN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>소리를 질러 적을 공격한다</t>
+          <t>부채로 예리하게 베어 공격한다</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1053,12 +1053,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>안개</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>안개에 숨어 적을 공격한다</t>
+          <t>불꽃으로 적을 공격한다</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1090,12 +1090,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>부채베기</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>부채로 예리하게 베어 공격한다</t>
+          <t>작은 불씨를 던져 화상을 입힌다</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>진흙던지기</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>사슬채찍</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>진흙을 뿌려 시야를 방해한다</t>
+          <t>사슬 같은 꼬리로 적을 휘감아 공격한다</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1164,32 +1164,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>속임수</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>기습적인 공격을 한다</t>
+          <t>새벽녘의 기운으로 적을 혼란에 빠뜨린다</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1201,12 +1201,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>헛소리</t>
+          <t>소리지르기</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>EVIL_SPIRIT</t>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>정신을 혼미하게 만드는 알 수 없는 소리를 낸다</t>
+          <t>소리를 질러 적을 공격한다</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>괴성</t>
+          <t>속임수</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>GHOST</t>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>95</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>듣기 싫은 소리를 내 공격한다</t>
+          <t>기습적인 공격을 한다</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>불씨던지기</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1290,17 +1290,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>작은 불씨를 던져 화상을 입힌다</t>
+          <t>안개에 숨어 적을 공격한다</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1312,32 +1312,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>호미찌르기</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>유혹하기</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>호미날로 적을 강하게 찌른다</t>
+          <t>적을 유혹해 상대를 혼란스럽게 한다</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1349,22 +1349,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>사슬채찍</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>사슬 같은 꼬리로 적을 휘감아 공격한다</t>
+          <t>강한 음파로 정신 피해를 입힌다</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1386,32 +1386,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>가시털</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>정전기</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>등의 가시를 세워 적을 찔러 공격한다</t>
+          <t>정전기를 일으켜격한다</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1423,12 +1423,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>그림자발바닥</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>바닥의 그림자를 타고 빠르게 돌진해 공격한다</t>
+          <t>진흙을 뿌려 시야를 방해한다</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1460,12 +1460,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>새벽의속삭임</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>EVIL_SPIRIT</t>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>새벽녘의 기운으로 적을 혼란에 빠뜨린다</t>
+          <t>소리로 적을 공격한다</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>바람발</t>
+          <t>할퀴기</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>날개짓으로 찬 바람을 일으켜 적을 얼린다</t>
+          <t>날카로운 발톱으로 할퀴어 공격한다</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1534,17 +1534,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>독꽃던지기</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>독이 깃든 꽃잎을 흩뿌려 중독 상태를 유발한다</t>
+          <t>정신을 혼미하게 만드는 알 수 없는 소리를 낸다</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1571,17 +1571,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>돌가루</t>
+          <t>호미찌르기</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>EVIL_SPIRIT</t>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>돌가루를 날려 적의 시야를 가린다</t>
+          <t>호미날로 적을 강하게 찌른다</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1608,17 +1608,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>바람칼</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>가시돌진</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>바람으로 만든 칼날을 날린다</t>
+          <t>몸의 가시로 돌진하며 상대에게 큰 피해를 준다</t>
         </is>
       </c>
       <c r="G31" s="7" t="inlineStr">
@@ -1645,32 +1645,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>얼음창</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>가시벽</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>얼음으로 만든 창을 던진다</t>
+          <t>빠르게 솟아나는 가시로 상대를 가둬 공격한다</t>
         </is>
       </c>
       <c r="G32" s="7" t="inlineStr">
@@ -1682,32 +1682,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>물어뜯기</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>이빨로 적을 물어뜯는다</t>
+          <t>검은 연기를 뿜어 정신을 혼미하게 만든다</t>
         </is>
       </c>
       <c r="G33" s="7" t="inlineStr">
@@ -1719,17 +1719,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>후려치기</t>
+          <t>검은연못</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>HUMAN</t>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>무거운 일격으로 적을 가격한다</t>
+          <t>어둠의 연못을 소환해 적을 빨아들인다</t>
         </is>
       </c>
       <c r="G34" s="7" t="inlineStr">
@@ -1756,32 +1756,32 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>맹독침</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>강한 독을 가진 독침을 쏘아 공격한다</t>
+          <t>귀신의 절규가 공명을 일으켜 타격을 준다</t>
         </is>
       </c>
       <c r="G35" s="7" t="inlineStr">
@@ -1793,17 +1793,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>흙폭탄</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>귀신의사슬</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>흙으로 만든 폭탄을 던진다</t>
+          <t>유령 사슬로 적을 묶어 묵직한 피해를 준다</t>
         </is>
       </c>
       <c r="G36" s="7" t="inlineStr">
@@ -1830,7 +1830,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>마구할퀴기</t>
+          <t>꼬리후려치기</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1840,22 +1840,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>연속으로 할퀴어 강한 피해를 준다</t>
+          <t>날렵한 꼬리로 적을 후려친다</t>
         </is>
       </c>
       <c r="G37" s="7" t="inlineStr">
@@ -1867,12 +1867,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>염력</t>
+          <t>달그림자베기</t>
         </is>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
-          <t>GHOST</t>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>염력으로 물건을 던져져 공격한다</t>
+          <t>달빛 속 그림자로 벤다</t>
         </is>
       </c>
       <c r="G38" s="7" t="inlineStr">
@@ -1904,10 +1904,10 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>속임수베기</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="inlineStr">
+          <t>달빛무도</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>EVIL_SPIRIT</t>
         </is>
@@ -1924,12 +1924,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>기습적인 공격을 한다</t>
+          <t>달빛 아래 환영 무도를 펼쳐 연속 공격을 가한다</t>
         </is>
       </c>
       <c r="G39" s="7" t="inlineStr">
@@ -1941,17 +1941,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>폭음파</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>마구할퀴기</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>강한 폭발을 일으켜 만든 음파로 피해를 입힌다</t>
+          <t>연속으로 할퀴어 강한 피해를 준다</t>
         </is>
       </c>
       <c r="G40" s="7" t="inlineStr">
@@ -1978,12 +1978,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>어퍼컷</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1993,17 +1993,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>강한 어퍼컷을 날펴 피해를 입힌다</t>
+          <t>저승의 멜로디로 적의 기억을 일시적으로 잃게 한다</t>
         </is>
       </c>
       <c r="G41" s="7" t="inlineStr">
@@ -2015,22 +2015,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>울부짖기</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>망자의손</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>큰 소리를 질러 공격한다</t>
+          <t>죽은 자의 손이 나타나 덮친다</t>
         </is>
       </c>
       <c r="G42" s="7" t="inlineStr">
@@ -2052,32 +2052,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>연속박치기</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>맹독침</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>연속으로 머리로 들이받는다</t>
+          <t>강한 독을 가진 독침을 쏘아 공격한다</t>
         </is>
       </c>
       <c r="G43" s="7" t="inlineStr">
@@ -2089,12 +2089,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>환영술</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
-        <is>
-          <t>EVIL_SPIRIT</t>
+          <t>무쇠발톱</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>상대의 두려움을 담은 환영 보여준다</t>
+          <t>단단한 무쇠 같은 발톱으로 적을 내리찍는다</t>
         </is>
       </c>
       <c r="G44" s="7" t="inlineStr">
@@ -2126,32 +2126,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>예측공격</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>물어뜯기</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>상대의 움직임을 파악해서 약점을 공격한다</t>
+          <t>이빨로 적을 물어뜯는다</t>
         </is>
       </c>
       <c r="G45" s="7" t="inlineStr">
@@ -2163,17 +2163,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>가시돌진</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>바람칼</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>몸의 가시로 돌진하며 상대에게 큰 피해를 준다</t>
+          <t>바람으로 만든 칼날을 날린다</t>
         </is>
       </c>
       <c r="G46" s="7" t="inlineStr">
@@ -2200,32 +2200,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>요상한바람</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="inlineStr">
-        <is>
-          <t>EVIL_SPIRIT</t>
+          <t>번개</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>기분 나쁜 바람으로 공격 한다</t>
+          <t>번개로 적을 공격한다</t>
         </is>
       </c>
       <c r="G47" s="7" t="inlineStr">
@@ -2237,32 +2237,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>쇠방울던지기</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>쇠방울을 던져 타격을 준다</t>
+          <t>불길의 장벽을 세워 적을 태운다</t>
         </is>
       </c>
       <c r="G48" s="7" t="inlineStr">
@@ -2274,17 +2274,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>검은연기</t>
+          <t>속임수베기</t>
         </is>
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
-          <t>GHOST</t>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2294,12 +2294,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>검은 연기를 뿜어 정신을 혼미하게 만든다</t>
+          <t>기습적인 공격을 한다</t>
         </is>
       </c>
       <c r="G49" s="7" t="inlineStr">
@@ -2311,32 +2311,32 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>망자의손</t>
-        </is>
-      </c>
-      <c r="B50" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>쇠방울던지기</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>죽은 자의 손이 나타나 덮친다</t>
+          <t>쇠방울을 던져 타격을 준다</t>
         </is>
       </c>
       <c r="G50" s="7" t="inlineStr">
@@ -2348,12 +2348,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>달그림자베기</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
-        <is>
-          <t>EVIL_SPIRIT</t>
+          <t>숨은송곳니</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>달빛 속 그림자로 벤다</t>
+          <t>숨어 있다가 날카로운 이빨로 덮친다</t>
         </is>
       </c>
       <c r="G51" s="7" t="inlineStr">
@@ -2385,12 +2385,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>호랑이눈빛</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>어퍼컷</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>호랑이의 기운으로 상대를 얼어붙게 한다</t>
+          <t>강한 어퍼컷을 날펴 피해를 입힌다</t>
         </is>
       </c>
       <c r="G52" s="7" t="inlineStr">
@@ -2422,12 +2422,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>피눈물베기</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
-        <is>
-          <t>EVIL_SPIRIT</t>
+          <t>얼음창</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2437,17 +2437,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>증오로 울며 베어내는 원혼의 칼날</t>
+          <t>얼음으로 만든 창을 던진다</t>
         </is>
       </c>
       <c r="G53" s="7" t="inlineStr">
@@ -2459,12 +2459,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>괴성공명</t>
-        </is>
-      </c>
-      <c r="B54" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>귀신의 절규가 공명을 일으켜 타격을 준다</t>
+          <t>연속으로 머리로 들이받는다</t>
         </is>
       </c>
       <c r="G54" s="7" t="inlineStr">
@@ -2496,12 +2496,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>숨은송곳니</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>염력</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>숨어 있다가 날카로운 이빨로 덮친다</t>
+          <t>염력으로 물건을 던져져 공격한다</t>
         </is>
       </c>
       <c r="G55" s="7" t="inlineStr">
@@ -2533,32 +2533,32 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>혼령의숨</t>
-        </is>
-      </c>
-      <c r="B56" s="5" t="inlineStr">
+          <t>영혼폭포</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>GHOST</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>혼령이 뿜는 숨결로 정신을 흔든다</t>
+          <t>영혼의 물줄기를 폭포처럼 쏟아내 피해를 준다</t>
         </is>
       </c>
       <c r="G56" s="7" t="inlineStr">
@@ -2570,32 +2570,32 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>번개</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>예측공격</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>번개로 적을 공격한다</t>
+          <t>상대의 움직임을 파악해서 약점을 공격한다</t>
         </is>
       </c>
       <c r="G57" s="7" t="inlineStr">
@@ -2607,17 +2607,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>꼬리후려치기</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>요상한바람</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>날렵한 꼬리로 적을 후려친다</t>
+          <t>기분 나쁜 바람으로 공격 한다</t>
         </is>
       </c>
       <c r="G58" s="7" t="inlineStr">
@@ -2644,22 +2644,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>불길장벽</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>울부짖기</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>불길의 장벽을 세워 적을 태운다</t>
+          <t>큰 소리를 질러 공격한다</t>
         </is>
       </c>
       <c r="G59" s="7" t="inlineStr">
@@ -2681,32 +2681,32 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>호랑이발톱</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>철화살</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>호랑이의 발톱으로 강하게 찢어낸다</t>
+          <t>단단한 철제 화살을 날려 정확히 관통한다</t>
         </is>
       </c>
       <c r="G60" s="7" t="inlineStr">
@@ -2721,7 +2721,7 @@
           <t>칼날비</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" s="6" t="inlineStr">
         <is>
           <t>HUMAN</t>
         </is>
@@ -2755,12 +2755,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>철화살</t>
+          <t>폭음파</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>HUMAN</t>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>단단한 철제 화살을 날려 정확히 관통한다</t>
+          <t>강한 폭발을 일으켜 만든 음파로 피해를 입힌다</t>
         </is>
       </c>
       <c r="G62" s="7" t="inlineStr">
@@ -2829,17 +2829,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>영혼폭포</t>
+          <t>피눈물베기</t>
         </is>
       </c>
       <c r="B64" s="5" t="inlineStr">
         <is>
-          <t>GHOST</t>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>영혼의 물줄기를 폭포처럼 쏟아내 피해를 준다</t>
+          <t>증오로 울며 베어내는 원혼의 칼날</t>
         </is>
       </c>
       <c r="G64" s="7" t="inlineStr">
@@ -2866,7 +2866,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>가시벽</t>
+          <t>호랑이눈빛</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -2876,12 +2876,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>빠르게 솟아나는 가시로 상대를 가둬 공격한다</t>
+          <t>호랑이의 기운으로 상대를 얼어붙게 한다</t>
         </is>
       </c>
       <c r="G65" s="7" t="inlineStr">
@@ -2903,17 +2903,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>달빛무도</t>
-        </is>
-      </c>
-      <c r="B66" s="6" t="inlineStr">
-        <is>
-          <t>EVIL_SPIRIT</t>
+          <t>호랑이발톱</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2923,12 +2923,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>달빛 아래 환영 무도를 펼쳐 연속 공격을 가한다</t>
+          <t>호랑이의 발톱으로 강하게 찢어낸다</t>
         </is>
       </c>
       <c r="G66" s="7" t="inlineStr">
@@ -2940,10 +2940,10 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>검은연못</t>
-        </is>
-      </c>
-      <c r="B67" s="5" t="inlineStr">
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>GHOST</t>
         </is>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>95</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>어둠의 연못을 소환해 적을 빨아들인다</t>
+          <t>혼령이 뿜는 숨결로 정신을 흔든다</t>
         </is>
       </c>
       <c r="G67" s="7" t="inlineStr">
@@ -2977,10 +2977,10 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>귀신의사슬</t>
-        </is>
-      </c>
-      <c r="B68" s="6" t="inlineStr">
+          <t>환영분열</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
         <is>
           <t>EVIL_SPIRIT</t>
         </is>
@@ -2992,17 +2992,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>유령 사슬로 적을 묶어 묵직한 피해를 준다</t>
+          <t>자신의 환영을 나누어 다수 타격을 가한다</t>
         </is>
       </c>
       <c r="G68" s="7" t="inlineStr">
@@ -3014,12 +3014,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>무쇠발톱</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>환영술</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>단단한 무쇠 같은 발톱으로 적을 내리찍는다</t>
+          <t>상대의 두려움을 담은 환영 보여준다</t>
         </is>
       </c>
       <c r="G69" s="7" t="inlineStr">
@@ -3051,12 +3051,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>망각의노래</t>
+          <t>후려치기</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>EVIL_SPIRIT</t>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3066,17 +3066,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>저승의 멜로디로 적의 기억을 일시적으로 잃게 한다</t>
+          <t>무거운 일격으로 적을 가격한다</t>
         </is>
       </c>
       <c r="G70" s="7" t="inlineStr">
@@ -3088,22 +3088,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>환영분열</t>
+          <t>흙폭탄</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>EVIL_SPIRIT</t>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>자신의 환영을 나누어 다수 타격을 가한다</t>
+          <t>흙으로 만든 폭탄을 던진다</t>
         </is>
       </c>
       <c r="G71" s="7" t="inlineStr">
@@ -3125,35 +3125,35 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>지옥불</t>
-        </is>
-      </c>
-      <c r="B72" s="6" t="inlineStr">
-        <is>
-          <t>EVIL_SPIRIT</t>
+          <t>강철꼬리치기</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>지옥의 불꽃으로 적을 태운다</t>
-        </is>
-      </c>
-      <c r="G72" s="6" t="inlineStr">
+          <t>단단한 꼬리로 강하게 내리친다</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3162,12 +3162,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>분노의주먹</t>
+          <t>그림자베기</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>HUMAN</t>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3187,10 +3187,10 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>분노를 담아 강한 한 방을 날린다</t>
-        </is>
-      </c>
-      <c r="G73" s="6" t="inlineStr">
+          <t>그림자로 적을 베어버린다</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3199,35 +3199,35 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>사념의박치기</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>깨물어부수기</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>강하게 부딪힌다</t>
-        </is>
-      </c>
-      <c r="G74" s="6" t="inlineStr">
+          <t>이빨로 깨물어 부순다다</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3236,35 +3236,35 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>강철꼬리치기</t>
-        </is>
-      </c>
-      <c r="B75" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>뇌우</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>단단한 꼬리로 강하게 내리친다</t>
-        </is>
-      </c>
-      <c r="G75" s="6" t="inlineStr">
+          <t>천둥 번개와 비를 내려 공격한다</t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3273,17 +3273,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>맹화</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>달밤유성</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3293,15 +3293,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>강한 불꽃으로 공격헌다</t>
-        </is>
-      </c>
-      <c r="G76" s="6" t="inlineStr">
+          <t>달빛 속에서 유성이 떨어져 적을 강타한다</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3310,17 +3310,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>깨물어부수기</t>
-        </is>
-      </c>
-      <c r="B77" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>도깨비방망이</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3330,15 +3330,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>이빨로 깨물어 부순다다</t>
-        </is>
-      </c>
-      <c r="G77" s="6" t="inlineStr">
+          <t>도깨비방망이로 내려쳐 적을 공격한다</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3347,12 +3347,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>철퇴내리치기</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>맹화</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3372,10 +3372,10 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>무거운 철퇴를 휘둘러 큰 피해를 준다</t>
-        </is>
-      </c>
-      <c r="G78" s="6" t="inlineStr">
+          <t>강한 불꽃으로 공격헌다</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3384,35 +3384,35 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>지옥기운</t>
+          <t>무지개발차기</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>EVIL_SPIRIT</t>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>지옥의 어둠으로 적에게 큰 피해를 준다</t>
-        </is>
-      </c>
-      <c r="G79" s="6" t="inlineStr">
+          <t>어디서 날라올지 모르는 강력한 발차기를 날린다</t>
+        </is>
+      </c>
+      <c r="G79" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3421,35 +3421,35 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>이단도약</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>백호의울음</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>두 번 튕겨 뛰며 큰 피해를 준다</t>
-        </is>
-      </c>
-      <c r="G80" s="6" t="inlineStr">
+          <t>전설 속 백호의 울음으로 적을 압도한다</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3458,10 +3458,10 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>무지개발차기</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
+          <t>분노의주먹</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
         <is>
           <t>HUMAN</t>
         </is>
@@ -3483,10 +3483,10 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>어디서 날라올지 모르는 강력한 발차기를 날린다</t>
-        </is>
-      </c>
-      <c r="G81" s="6" t="inlineStr">
+          <t>분노를 담아 강한 한 방을 날린다</t>
+        </is>
+      </c>
+      <c r="G81" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3495,35 +3495,35 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>지옥기운</t>
-        </is>
-      </c>
-      <c r="B82" s="6" t="inlineStr">
-        <is>
-          <t>EVIL_SPIRIT</t>
+          <t>불사조의노래</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>지옥의 어둠으로 적에게 큰 피해를 준다</t>
-        </is>
-      </c>
-      <c r="G82" s="6" t="inlineStr">
+          <t>불사조의 울음으로 전장을 불태우며 부활 효과를 부여한다</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3532,35 +3532,35 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>어둠손길</t>
-        </is>
-      </c>
-      <c r="B83" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>상대를 자신이 있는 어둠속으로 끌어들여 공격한다</t>
-        </is>
-      </c>
-      <c r="G83" s="6" t="inlineStr">
+          <t>강하게 부딪힌다</t>
+        </is>
+      </c>
+      <c r="G83" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3569,35 +3569,35 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>그림자베기</t>
-        </is>
-      </c>
-      <c r="B84" s="5" t="inlineStr">
+          <t>암흑회오리</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
         <is>
           <t>GHOST</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>그림자로 적을 베어버린다</t>
-        </is>
-      </c>
-      <c r="G84" s="6" t="inlineStr">
+          <t>암흑 에너지의 회오리를 만들어 광역 흡수 피해를 준다</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3606,35 +3606,35 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>영혼흡수</t>
-        </is>
-      </c>
-      <c r="B85" s="6" t="inlineStr">
-        <is>
-          <t>EVIL_SPIRIT</t>
+          <t>어둠손길</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>적의 영혼을 흡수한다</t>
-        </is>
-      </c>
-      <c r="G85" s="6" t="inlineStr">
+          <t>상대를 자신이 있는 어둠속으로 끌어들여 공격한다</t>
+        </is>
+      </c>
+      <c r="G85" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3643,35 +3643,35 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>혼백폭발</t>
+          <t>영혼흡수</t>
         </is>
       </c>
       <c r="B86" s="5" t="inlineStr">
         <is>
-          <t>GHOST</t>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>혼백의 힘으로 폭발을 일으킨다</t>
-        </is>
-      </c>
-      <c r="G86" s="6" t="inlineStr">
+          <t>적의 영혼을 흡수한다</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3680,7 +3680,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>도깨비방망이</t>
+          <t>용암분출</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
@@ -3690,25 +3690,25 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>도깨비방망이로 내려쳐 적을 공격한다</t>
-        </is>
-      </c>
-      <c r="G87" s="6" t="inlineStr">
+          <t>지면을 뚫고 용암 기둥을 솟아오르게 해 적을 태운다</t>
+        </is>
+      </c>
+      <c r="G87" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3717,12 +3717,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>혼령메아리</t>
-        </is>
-      </c>
-      <c r="B88" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>이단도약</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3742,10 +3742,10 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>죽은 혼령들의 메아리로 정신 공격을 가한다</t>
-        </is>
-      </c>
-      <c r="G88" s="6" t="inlineStr">
+          <t>두 번 튕겨 뛰며 큰 피해를 준다</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3754,12 +3754,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>백호의울음</t>
-        </is>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>ANIMAL</t>
+          <t>지옥기운</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3779,10 +3779,10 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>전설 속 백호의 울음으로 적을 압도한다</t>
-        </is>
-      </c>
-      <c r="G89" s="6" t="inlineStr">
+          <t>지옥의 어둠으로 적에게 큰 피해를 준다</t>
+        </is>
+      </c>
+      <c r="G89" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3791,12 +3791,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>뇌우</t>
+          <t>지옥불</t>
         </is>
       </c>
       <c r="B90" s="5" t="inlineStr">
         <is>
-          <t>GHOST</t>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3816,10 +3816,10 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>천둥 번개와 비를 내려 공격한다</t>
-        </is>
-      </c>
-      <c r="G90" s="6" t="inlineStr">
+          <t>지옥의 불꽃으로 적을 태운다</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3828,12 +3828,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>혼신의부채베기</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>HUMAN</t>
+          <t>지옥폭뢰</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3843,20 +3843,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>혼신을 담아 부채로 빠르게 베어낸다</t>
-        </is>
-      </c>
-      <c r="G91" s="6" t="inlineStr">
+          <t>지옥의 번개를 소환해 전장을 가로지른다</t>
+        </is>
+      </c>
+      <c r="G91" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3865,7 +3865,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>태산벽력</t>
+          <t>천지개벽</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
@@ -3890,10 +3890,10 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>산을 깨뜨리는 벽력으로 일격을 가한다</t>
-        </is>
-      </c>
-      <c r="G92" s="6" t="inlineStr">
+          <t>하늘과 땅을 가르는 거대한 충격파를 발사한다</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3902,35 +3902,35 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>달밤유성</t>
-        </is>
-      </c>
-      <c r="B93" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
+          <t>철퇴내리치기</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>달빛 속에서 유성이 떨어져 적을 강타한다</t>
-        </is>
-      </c>
-      <c r="G93" s="6" t="inlineStr">
+          <t>무거운 철퇴를 휘둘러 큰 피해를 준다</t>
+        </is>
+      </c>
+      <c r="G93" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3939,7 +3939,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>천지개벽</t>
+          <t>태산벽력</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -3964,10 +3964,10 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>하늘과 땅을 가르는 거대한 충격파를 발사한다</t>
-        </is>
-      </c>
-      <c r="G94" s="6" t="inlineStr">
+          <t>산을 깨뜨리는 벽력으로 일격을 가한다</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -3976,35 +3976,35 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>지옥폭뢰</t>
+          <t>파멸의망치</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>EVIL_SPIRIT</t>
+          <t>HUMAN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>지옥의 번개를 소환해 전장을 가로지른다</t>
-        </is>
-      </c>
-      <c r="G95" s="6" t="inlineStr">
+          <t>거대한 망치를 휘둘러 적 하나를 강타한다</t>
+        </is>
+      </c>
+      <c r="G95" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -4013,10 +4013,10 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>암흑회오리</t>
-        </is>
-      </c>
-      <c r="B96" s="5" t="inlineStr">
+          <t>혼돈의폭발</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
         <is>
           <t>GHOST</t>
         </is>
@@ -4038,10 +4038,10 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>암흑 에너지의 회오리를 만들어 광역 흡수 피해를 준다</t>
-        </is>
-      </c>
-      <c r="G96" s="6" t="inlineStr">
+          <t>혼돈의 에너지를 폭발시켜 광역 흡수 피해를 입힌다</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -4050,12 +4050,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>불사조의노래</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>혼령메아리</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4075,10 +4075,10 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>불사조의 울음으로 전장을 불태우며 부활 효과를 부여한다</t>
-        </is>
-      </c>
-      <c r="G97" s="6" t="inlineStr">
+          <t>죽은 혼령들의 메아리로 정신 공격을 가한다</t>
+        </is>
+      </c>
+      <c r="G97" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -4087,17 +4087,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>용암분출</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="inlineStr">
-        <is>
-          <t>MONSTER</t>
+          <t>혼백폭발</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4107,15 +4107,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>지면을 뚫고 용암 기둥을 솟아오르게 해 적을 태운다</t>
-        </is>
-      </c>
-      <c r="G98" s="6" t="inlineStr">
+          <t>혼백의 힘으로 폭발을 일으킨다</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
@@ -4124,17 +4124,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>파멸의망치</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
+          <t>혼신의부채베기</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
         <is>
           <t>HUMAN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4144,52 +4144,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>거대한 망치를 휘둘러 적 하나를 강타한다</t>
-        </is>
-      </c>
-      <c r="G99" s="6" t="inlineStr">
-        <is>
-          <t>고급</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>혼돈의폭발</t>
-        </is>
-      </c>
-      <c r="B100" s="5" t="inlineStr">
-        <is>
-          <t>GHOST</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>혼돈의 에너지를 폭발시켜 광역 흡수 피해를 입힌다</t>
-        </is>
-      </c>
-      <c r="G100" s="6" t="inlineStr">
+          <t>혼신을 담아 부채로 빠르게 베어낸다</t>
+        </is>
+      </c>
+      <c r="G99" s="5" t="inlineStr">
         <is>
           <t>고급</t>
         </is>
